--- a/data/evaluation/evaluation_Center_Autumn_Pumpkin.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Pumpkin.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1189.535714285714</v>
+        <v>1182.178571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>4056315.446428571</v>
+        <v>4104316.517857143</v>
       </c>
       <c r="D3" t="n">
-        <v>2014.029653810631</v>
+        <v>2025.911280845522</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6425608800670806</v>
+        <v>0.6383310658541913</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>951.4502480158736</v>
+        <v>1080.035367499564</v>
       </c>
       <c r="C4" t="n">
-        <v>2504337.043232526</v>
+        <v>2940457.06353718</v>
       </c>
       <c r="D4" t="n">
-        <v>1582.509729269468</v>
+        <v>1714.776097202542</v>
       </c>
       <c r="E4" t="n">
-        <v>0.779319917158665</v>
+        <v>0.740889386224471</v>
       </c>
     </row>
     <row r="5">
